--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.126</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.54</v>
+        <v>14.955</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.263</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.497</v>
+        <v>17.224</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.035</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.158</v>
+        <v>4.847</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.43001206207378</v>
+        <v>14.80187224892889</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.43001209384368</v>
+        <v>19.48275553358998</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.43001210485498</v>
+        <v>30.67281248784168</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.43001206292701</v>
+        <v>2.142788354466106</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.4300120980069</v>
+        <v>20.2022014109575</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.43001210949654</v>
+        <v>25.18590831429007</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.43001206893625</v>
+        <v>8.87699215453172</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.43001210414995</v>
+        <v>31.57395555542746</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.43001211509846</v>
+        <v>37.82250572429911</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.43001211837178</v>
+        <v>19.56519548523481</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.43001213202574</v>
+        <v>22.848502289393</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.43001213644115</v>
+        <v>21.83612257868816</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.43001209095017</v>
+        <v>12.0834837383198</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.43001212599773</v>
+        <v>14.12000622927239</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.43001213683899</v>
+        <v>31.69524449744179</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.43001210037155</v>
+        <v>13.76565982592858</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.43001213643839</v>
+        <v>26.65351559439968</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.4300121496417</v>
+        <v>32.88501911110392</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.43001210005097</v>
+        <v>2.477616865785066</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.43001213875411</v>
+        <v>10.09957283772206</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.43001215288836</v>
+        <v>15.06564679315497</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.43001210932933</v>
+        <v>1.791264393739866</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.43001214885613</v>
+        <v>16.6536322812685</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.43001207649818</v>
+        <v>15.03349817872623</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.43001211002671</v>
+        <v>26.62282463896115</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.43001212102613</v>
+        <v>28.83773305599657</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.43001207931988</v>
+        <v>1.234375261003393</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.43001211642949</v>
+        <v>32.90969468112928</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.43001212797802</v>
+        <v>33.79328000563282</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.43001208626482</v>
+        <v>6.392345752366722</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.43001212342241</v>
+        <v>45.3930889871511</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.43001213435558</v>
+        <v>44.9959421544737</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.43001213746701</v>
+        <v>47.22345373559402</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.43001215138934</v>
+        <v>50.51266600244139</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.43001215588638</v>
+        <v>49.47039104276951</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.43001210819062</v>
+        <v>20.47551538372356</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.43001214521859</v>
+        <v>41.21397044341118</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.43001215594653</v>
+        <v>50.28883112930534</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.43001211904848</v>
+        <v>14.74383866382367</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.43001215708528</v>
+        <v>34.39884719801022</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.43001217036579</v>
+        <v>36.38503293899753</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.43001212084654</v>
+        <v>3.221835435733212</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.43001216180902</v>
+        <v>29.53628662075134</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.43001217608918</v>
+        <v>35.08614546833702</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.43001213135232</v>
+        <v>4.289433543653175</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.4300121730607</v>
+        <v>45.12773640946813</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.43001207947037</v>
+        <v>7.679982949697191</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.43001211292887</v>
+        <v>21.03471021153165</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.43001212382618</v>
+        <v>24.76855405380174</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.43001208284725</v>
+        <v>-0.2637788094616127</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.43001211988412</v>
+        <v>30.39929279742688</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.43001213135982</v>
+        <v>34.41794881631529</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.43001208980927</v>
+        <v>6.234197469245814</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.43001212688081</v>
+        <v>46.25087771698412</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.43001213771848</v>
+        <v>49.05763635584373</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.43001214066526</v>
+        <v>48.98229882502882</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.43001215445981</v>
+        <v>49.96193355886096</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.43001215894558</v>
+        <v>52.8305137591377</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.43001211131664</v>
+        <v>10.28898086064383</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.430012148347</v>
+        <v>33.78769672002971</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.43001215897062</v>
+        <v>45.13970383364047</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.43001212240122</v>
+        <v>9.997539002531923</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.4300121603449</v>
+        <v>30.07787279180637</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.43001217354011</v>
+        <v>34.47431025680525</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.4300121247723</v>
+        <v>1.919322542788464</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.4300121656507</v>
+        <v>25.09246121681426</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.43001217987233</v>
+        <v>36.94330753787219</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.43001213530541</v>
+        <v>5.11978697778811</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.43001217690905</v>
+        <v>44.75576755999923</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.43001206857424</v>
+        <v>2.8632294490546</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.43001210107096</v>
+        <v>14.65664724343209</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.43001211215139</v>
+        <v>21.31082384505198</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.43001207113779</v>
+        <v>0.1877904985228867</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.43001210704475</v>
+        <v>28.55763568875244</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.43001211871391</v>
+        <v>35.45472396393097</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.4300120773667</v>
+        <v>0.7976772459106627</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.43001211336252</v>
+        <v>41.05406601921523</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.43001212440493</v>
+        <v>46.57109277162358</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.43001212727534</v>
+        <v>35.7026036397916</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.43001214099161</v>
+        <v>37.85282915676684</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.43001214550318</v>
+        <v>39.56955806053266</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.43001209890157</v>
+        <v>3.178977876586814</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.43001213501307</v>
+        <v>26.78984933956193</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.43001214590987</v>
+        <v>42.11606208317714</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.4300121090417</v>
+        <v>5.860986128943793</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.43001214591125</v>
+        <v>27.61302976874957</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.43001215929716</v>
+        <v>35.67411295002772</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.43001211052195</v>
+        <v>2.690297453414914</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.43001215016109</v>
+        <v>24.3915385188931</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.43001216458372</v>
+        <v>38.28127183242218</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.43001212011581</v>
+        <v>2.236548490823978</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.43001216051803</v>
+        <v>37.54746912158519</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.43001216222295</v>
+        <v>24.37050033129094</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.43001216105873</v>
+        <v>18.5928031401787</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.43001217845361</v>
+        <v>31.48799166039366</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.43001218368403</v>
+        <v>36.42656896781124</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.43001212949702</v>
+        <v>3.702804609764328</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.43001217078151</v>
+        <v>13.88799319864985</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.43001218284749</v>
+        <v>21.23861503050757</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.43001214427019</v>
+        <v>10.98270077413069</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.43001218115235</v>
+        <v>21.38377269385761</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.43001219428891</v>
+        <v>33.1371409764062</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.43001214474141</v>
+        <v>1.678301472642872</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.43001218447445</v>
+        <v>9.377437223850407</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.43001219841706</v>
+        <v>13.9986518554232</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.4300121560685</v>
+        <v>0.4529167454648331</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.43001219644382</v>
+        <v>18.72919046850994</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.43001220965053</v>
+        <v>33.9138204320016</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.43001220608027</v>
+        <v>23.81621724393379</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.43001222312493</v>
+        <v>42.29479437319291</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.43001222774427</v>
+        <v>48.61392678844901</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.43001217247041</v>
+        <v>3.739623645858941</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.43001221394144</v>
+        <v>16.94693207278466</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.43001222613309</v>
+        <v>25.46064655424983</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.43001218650505</v>
+        <v>52.67430079814035</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.43001218473641</v>
+        <v>53.16098846959781</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.43001220238226</v>
+        <v>61.30597968739301</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.43001220770358</v>
+        <v>61.22250970670207</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.43001215122428</v>
+        <v>18.02715685915369</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.43001219469847</v>
+        <v>55.25743618343166</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.43001220670473</v>
+        <v>59.27815825053359</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.4300121646599</v>
+        <v>17.51964825247249</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.43001220354715</v>
+        <v>38.50476837809184</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.43001221669059</v>
+        <v>42.86987248275294</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.43001216726932</v>
+        <v>4.496156911993907</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.4300122093221</v>
+        <v>41.18829754600229</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.43001222334079</v>
+        <v>44.14180518300613</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.43001217984225</v>
+        <v>7.182506354006975</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.43001222243797</v>
+        <v>60.84889410560577</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.43001223563866</v>
+        <v>65.12242101660341</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.43001223140464</v>
+        <v>78.92340252937633</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.43001224867117</v>
+        <v>82.77875949497586</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.43001225333893</v>
+        <v>85.16144166099717</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.43001219583552</v>
+        <v>29.13368729166574</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.43001223946968</v>
+        <v>73.2012629196261</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.4300122515207</v>
+        <v>77.10855674302555</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.43001219027204</v>
+        <v>57.97534731099317</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.43001218824267</v>
+        <v>45.96887335838551</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.43001220570601</v>
+        <v>51.72440908816452</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.43001221101703</v>
+        <v>59.43592129580884</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.43001215472248</v>
+        <v>8.68700260073264</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.43001219814483</v>
+        <v>50.26056661755428</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.43001221006311</v>
+        <v>57.81797735093885</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.43001216783305</v>
+        <v>11.83015626820885</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.43001220663961</v>
+        <v>35.21142489892314</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.43001221967747</v>
+        <v>41.96097888389509</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.4300121710395</v>
+        <v>1.813147432441824</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.43001221302648</v>
+        <v>37.82027738715813</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.43001222696213</v>
+        <v>46.76868877574573</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.43001218360936</v>
+        <v>6.609783254374904</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.43001222611257</v>
+        <v>62.49843933600523</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.4300122392089</v>
+        <v>71.122964122037</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.4300122347694</v>
+        <v>78.52879579108007</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.43001225185487</v>
+        <v>79.85607642586824</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.43001225650517</v>
+        <v>88.49064431505376</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.43001219917953</v>
+        <v>15.3486754096791</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.43001224277612</v>
+        <v>68.4524772169104</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.43001225471341</v>
+        <v>79.82755259811942</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.43001217408944</v>
+        <v>55.5231250459006</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.43001217204748</v>
+        <v>26.35019027772877</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.43001218947033</v>
+        <v>33.29719638532004</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.43001219481916</v>
+        <v>45.59573903460891</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.43001213961497</v>
+        <v>4.436681715719644</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.43001218202226</v>
+        <v>46.46153103626874</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.4300121942285</v>
+        <v>56.69659206570365</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.4300121540396</v>
+        <v>7.901297121538718</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.43001219178599</v>
+        <v>33.34945227201997</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.43001220506064</v>
+        <v>45.66210750608299</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.43001215639345</v>
+        <v>2.914865378540341</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.43001219714483</v>
+        <v>34.79106754629164</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.43001221132031</v>
+        <v>49.72426599901588</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.43001216803284</v>
+        <v>3.179718026670784</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.43001220934572</v>
+        <v>53.06089974414836</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.43001222270134</v>
+        <v>71.22897557968498</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.43001221832766</v>
+        <v>60.81857463143619</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.43001223539316</v>
+        <v>69.89628303029728</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.43001224010567</v>
+        <v>87.51083312834423</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.43001218372156</v>
+        <v>6.032613503278284</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.43001222636411</v>
+        <v>57.36875516323953</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.43001223864114</v>
+        <v>77.39118329425447</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.43001204558139</v>
+        <v>11.96476059776892</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.43001207654224</v>
+        <v>18.53671329244254</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.43001208707872</v>
+        <v>32.83311269888351</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.43001204505924</v>
+        <v>1.456571736106142</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.43001207928932</v>
+        <v>24.97672733507601</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.43001209029535</v>
+        <v>29.70133240809567</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.43001205043978</v>
+        <v>8.893284331269726</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.43001208471135</v>
+        <v>42.11378512750244</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.43001209517292</v>
+        <v>49.73671384961202</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.43001209961776</v>
+        <v>29.47432821414718</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.43001211263017</v>
+        <v>37.02758663919019</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.43001211696726</v>
+        <v>37.49530644589555</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.43001207310166</v>
+        <v>19.29750673195569</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.43001210727556</v>
+        <v>21.51621036144645</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.43001211779001</v>
+        <v>47.14630781377748</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.43001208518846</v>
+        <v>13.23039487735055</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.43001212053625</v>
+        <v>26.73386508942633</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.43001213327998</v>
+        <v>31.4540004566089</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.43001208351085</v>
+        <v>-2.625200233495619</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.43001212162734</v>
+        <v>11.8152875470751</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.43001213523974</v>
+        <v>15.39905261076863</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.4300120925917</v>
+        <v>1.471917317056196</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.43001213131261</v>
+        <v>29.2790959752928</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.43001205843148</v>
+        <v>13.14213447043768</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.43001209108182</v>
+        <v>23.47672834369392</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.4300121016232</v>
+        <v>31.2565608794343</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.43001205974989</v>
+        <v>0.8822422432103707</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.43001209595078</v>
+        <v>36.25264974329799</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.43001210701504</v>
+        <v>36.47075658385462</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.43001206594215</v>
+        <v>7.255717471145587</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.43001210207662</v>
+        <v>51.64957660160452</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.43001211254002</v>
+        <v>54.16774499536349</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.43001211682316</v>
+        <v>51.95818452464094</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.43001213008917</v>
+        <v>56.82017726536114</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.430012134522</v>
+        <v>57.1483040171851</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.43001208852926</v>
+        <v>23.31983019211454</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.43001212461359</v>
+        <v>42.72690859224745</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.4300121350343</v>
+        <v>55.79026034374709</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.43001210231044</v>
+        <v>14.76351619502951</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.4300121395549</v>
+        <v>34.01295077504339</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.43001215239347</v>
+        <v>35.89114378439005</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.43001210263979</v>
+        <v>-0.5146315823477465</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.43001214296543</v>
+        <v>33.37715059208026</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.43001215671017</v>
+        <v>35.97288668436792</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.43001211282034</v>
+        <v>3.584724171010507</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.43001215363839</v>
+        <v>52.89414427966493</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.43001206125095</v>
+        <v>5.210442973633178</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.43001209381874</v>
+        <v>17.70926136198165</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.4300121042687</v>
+        <v>27.0931427192015</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.43001206311989</v>
+        <v>-0.9633897087234828</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.43001209923663</v>
+        <v>33.95098737418267</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.43001211023515</v>
+        <v>36.38315007702214</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.43001206930937</v>
+        <v>6.335340215398034</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.43001210534447</v>
+        <v>50.94530883396935</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.43001211572262</v>
+        <v>56.99427702178319</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.43001211985519</v>
+        <v>55.11825867729895</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.43001213299583</v>
+        <v>57.85009756359824</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.43001213742196</v>
+        <v>61.81654580993687</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.43001209149578</v>
+        <v>12.99479548984927</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.43001212756788</v>
+        <v>35.5983482702219</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.43001213789031</v>
+        <v>49.38859589738419</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.4300121054697</v>
+        <v>9.461682572099548</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.43001214260677</v>
+        <v>29.33057040415885</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.43001215536966</v>
+        <v>33.50303658883239</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.43001210636985</v>
+        <v>-2.138762949053032</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.4300121465974</v>
+        <v>28.49254686319685</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.43001216028921</v>
+        <v>36.17360860251355</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.43001211655059</v>
+        <v>3.014954663723969</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.43001215724847</v>
+        <v>49.73089864194033</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.43001205120053</v>
+        <v>1.443192008095579</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.43001208283772</v>
+        <v>13.91949532573298</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.43001209344894</v>
+        <v>27.04251820306916</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.43001205232835</v>
+        <v>-0.8997761627741028</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.43001208734001</v>
+        <v>33.12949532103633</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.43001209851665</v>
+        <v>39.23164332290699</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.43001205785183</v>
+        <v>0.5789929994932805</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.43001209284933</v>
+        <v>46.2227296621578</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.43001210340731</v>
+        <v>56.38130655281887</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.43001210751735</v>
+        <v>47.42173743390343</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.43001212057424</v>
+        <v>53.92094460062764</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.4300121250087</v>
+        <v>56.70417930730719</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.4300120800863</v>
+        <v>8.567417574228458</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.43001211526049</v>
+        <v>32.31382731650091</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.43001212582927</v>
+        <v>52.86299686204389</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.43001209288195</v>
+        <v>6.190292818610189</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.43001212898257</v>
+        <v>26.31207735973848</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.43001214190342</v>
+        <v>32.43046641663605</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.43001209296193</v>
+        <v>-2.942567329699884</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.43001213197086</v>
+        <v>24.1707017198077</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.43001214584983</v>
+        <v>31.86421908669665</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.43001210227471</v>
+        <v>-0.8741267599730094</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.43001214181585</v>
+        <v>40.09013516017816</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.43001214418761</v>
+        <v>33.22637230179204</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.43001214423022</v>
+        <v>23.45906447134028</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.43001216083222</v>
+        <v>39.13577803726785</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.43001216595248</v>
+        <v>38.13853092816136</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.43001211347569</v>
+        <v>10.14245067496692</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.43001215385661</v>
+        <v>19.37114993882103</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.43001216574183</v>
+        <v>29.29334007498353</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.43001213178405</v>
+        <v>12.27337278637133</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.43001216811948</v>
+        <v>24.49106229573447</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.4300121806946</v>
+        <v>38.6356459002062</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.43001213096149</v>
+        <v>-2.047225559354118</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.43001217027627</v>
+        <v>12.72125422950411</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.43001218360644</v>
+        <v>19.75018604483695</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.4300121423523</v>
+        <v>1.559707709817289</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.43001218211441</v>
+        <v>31.96764416732547</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.43001219471908</v>
+        <v>47.24616241535038</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.43001219233342</v>
+        <v>28.14290267339588</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.43001220861015</v>
+        <v>46.70906073181295</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.43001221312562</v>
+        <v>55.11238643830877</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.43001215935512</v>
+        <v>7.664700098132343</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.43001220021426</v>
+        <v>27.19864593690927</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.43001221200774</v>
+        <v>40.61375834101089</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.4300121666059</v>
+        <v>57.28976850606119</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.4300121660731</v>
+        <v>55.01948442871404</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.43001218291005</v>
+        <v>62.06972407432272</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.43001218813437</v>
+        <v>59.92268134919239</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.43001213344037</v>
+        <v>21.59042100253662</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.43001217592749</v>
+        <v>56.90033544091237</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.43001218776789</v>
+        <v>59.6117424978389</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.43001215068624</v>
+        <v>17.7066522366374</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.43001218895393</v>
+        <v>36.76610608574082</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.43001220155092</v>
+        <v>43.95644223784312</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.43001215191524</v>
+        <v>0.3912159358709317</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.43001219349943</v>
+        <v>42.81995855309792</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.43001220689274</v>
+        <v>44.52769255238739</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.43001216442801</v>
+        <v>6.361782451563599</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.43001220632638</v>
+        <v>64.51214942571362</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.43001221893795</v>
+        <v>69.01343431488611</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.43001221595018</v>
+        <v>74.4367522866729</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.43001223243552</v>
+        <v>78.66013290788401</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.43001223700814</v>
+        <v>83.44543284993578</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.43001218106848</v>
+        <v>28.07278211375198</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.43001222401589</v>
+        <v>77.11741266294412</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.4300122356792</v>
+        <v>78.73541074260378</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.43001217014343</v>
+        <v>59.86668972854443</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.43001216937032</v>
+        <v>48.75188220450318</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.43001218603096</v>
+        <v>53.03023850299994</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.43001219124691</v>
+        <v>57.84799054626255</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.43001213673468</v>
+        <v>11.47736713666474</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.43001217915557</v>
+        <v>50.77603925793287</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.43001219091055</v>
+        <v>56.04849958748268</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.43001215366132</v>
+        <v>11.65887861029857</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.43001219183373</v>
+        <v>33.33497227961361</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.43001220433418</v>
+        <v>42.21801536723517</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.43001215548586</v>
+        <v>-2.264623360503165</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.43001219699013</v>
+        <v>39.58294766962906</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.43001221030565</v>
+        <v>45.02957252046777</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.43001216796844</v>
+        <v>4.756827102313807</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.43001220975863</v>
+        <v>63.97822500067964</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.43001222227439</v>
+        <v>72.27714823270641</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.43001221910362</v>
+        <v>73.84966414767079</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.43001223541382</v>
+        <v>77.49615305063465</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.43001223997139</v>
+        <v>86.25872195441498</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.43001218420641</v>
+        <v>14.18243101238492</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.43001222710456</v>
+        <v>73.39668372101981</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.43001223865674</v>
+        <v>79.29300631892561</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.43001215488559</v>
+        <v>53.34090486013118</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.43001215414871</v>
+        <v>29.14442466823859</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.43001217076772</v>
+        <v>36.44810909578037</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.43001217600016</v>
+        <v>40.30382337719625</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.43001212255113</v>
+        <v>6.248392881998043</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.43001216398939</v>
+        <v>42.79756970172441</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.43001217600345</v>
+        <v>50.44829125732572</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.43001214063679</v>
+        <v>7.351358030542642</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.43001217779227</v>
+        <v>33.70762225478391</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.43001219049417</v>
+        <v>45.5036632496368</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.4300121416707</v>
+        <v>-1.010149392355984</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.43001218196702</v>
+        <v>38.16707194086526</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.43001219550224</v>
+        <v>46.89463259319935</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.430012153294</v>
+        <v>1.541363331317356</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.43001219394454</v>
+        <v>58.51620269167542</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.43001220668299</v>
+        <v>73.09449918841985</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.43001220360319</v>
+        <v>62.40128021486167</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.43001221988804</v>
+        <v>74.96062388717114</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.43001222449364</v>
+        <v>86.9495814369793</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.43001216965702</v>
+        <v>8.007662226306635</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.43001221163812</v>
+        <v>67.61275210794922</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.4300122234962</v>
+        <v>81.66021850505057</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.43001204400032</v>
+        <v>7.827436487284629</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.43001207527152</v>
+        <v>8.786996522726341</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.43001208584986</v>
+        <v>20.87656562264225</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.43001204339656</v>
+        <v>-2.125025029739263</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.43001207795274</v>
+        <v>9.093666544079497</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.43001208901083</v>
+        <v>13.77780936091222</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.43001204882037</v>
+        <v>2.778969446809796</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.43001208342274</v>
+        <v>25.14092351146694</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.4300120939379</v>
+        <v>31.48540693640383</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.43001209852541</v>
+        <v>14.61032903301474</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.43001211166497</v>
+        <v>23.07468309613174</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.4300121160486</v>
+        <v>24.94156305990535</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.43001207170586</v>
+        <v>10.00556529924587</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.43001210625325</v>
+        <v>7.833147151321171</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.43001211681095</v>
+        <v>26.67770481877575</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.43001208550792</v>
+        <v>13.0551083550959</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.43001212128895</v>
+        <v>26.92519006020385</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.43001213406602</v>
+        <v>32.21844530938219</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.43001208383448</v>
+        <v>-3.312626923371781</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.43001212241486</v>
+        <v>11.27375514825556</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.43001213606881</v>
+        <v>16.16114581113837</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.43001209308995</v>
+        <v>1.023511348536701</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.430012132276</v>
+        <v>30.90096786291524</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.43001205697536</v>
+        <v>9.956666489425729</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.43001208995713</v>
+        <v>16.16434757554688</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.43001210053662</v>
+        <v>21.44634520030124</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.43001205822842</v>
+        <v>-1.016733131244038</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.43001209478118</v>
+        <v>24.12008468635858</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.43001210589387</v>
+        <v>24.16343026864249</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.43001206446374</v>
+        <v>2.50691720195168</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.4300121009514</v>
+        <v>38.22207690224097</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.43001211146406</v>
+        <v>38.80135442599605</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.43001211588364</v>
+        <v>38.06336628966805</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.43001212927995</v>
+        <v>44.42064153328005</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.43001213376079</v>
+        <v>46.20806718574551</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.43001208726765</v>
+        <v>14.53569409754219</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.43001212374871</v>
+        <v>30.29731594644289</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.43001213420869</v>
+        <v>37.71159839862371</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.43001210282376</v>
+        <v>14.33808995476072</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.43001214052936</v>
+        <v>35.56857569005147</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.43001215339653</v>
+        <v>37.29707098796619</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.43001210317355</v>
+        <v>-1.729425805035149</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.4300121439953</v>
+        <v>34.76243908540729</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.43001215777697</v>
+        <v>37.79440948821119</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.43001211353198</v>
+        <v>2.395785694896873</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.43001215484441</v>
+        <v>55.97604014752261</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.43001205984175</v>
+        <v>3.320299107071477</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.43001209273974</v>
+        <v>11.51080727115969</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.43001210322723</v>
+        <v>18.30089585912172</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.43001206165151</v>
+        <v>-1.963479154230086</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.43001209811938</v>
+        <v>22.53061541233181</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.43001210916591</v>
+        <v>24.68435132921574</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.43001206788389</v>
+        <v>3.353284181202028</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.43001210427095</v>
+        <v>39.29635020301534</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.43001211469751</v>
+        <v>43.25554214484252</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.43001211896513</v>
+        <v>42.81971319431831</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.43001213223395</v>
+        <v>46.92319046057689</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.43001213670844</v>
+        <v>52.41844070553095</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.43001209028377</v>
+        <v>6.538104841201729</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.43001212675085</v>
+        <v>24.86630106531028</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.43001213711229</v>
+        <v>33.22519117269867</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.43001210601926</v>
+        <v>11.09466274634376</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.43001214361624</v>
+        <v>33.45495952591813</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.43001215640687</v>
+        <v>36.85191940140626</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.43001210694504</v>
+        <v>-1.802350189928532</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.43001214766793</v>
+        <v>31.97961061748371</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.43001216139578</v>
+        <v>39.32393803113058</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.43001211730209</v>
+        <v>4.356737749819175</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.43001215849301</v>
+        <v>55.96780436436666</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.43001204970954</v>
+        <v>0.7465547382976894</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.43001208166301</v>
+        <v>7.442532774849909</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.43001209231651</v>
+        <v>18.98186665886264</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.4300120507747</v>
+        <v>-2.008983580391671</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.43001208611993</v>
+        <v>19.51445235781746</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.43001209735079</v>
+        <v>26.86387533800401</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.43001205634198</v>
+        <v>-2.332012599918343</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.43001209167681</v>
+        <v>32.69496581260547</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.43001210228856</v>
+        <v>42.16892155835383</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.43001210654239</v>
+        <v>35.26963642551287</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.43001211972449</v>
+        <v>42.27190465700895</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.43001212420701</v>
+        <v>47.6923175444127</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.43001207879804</v>
+        <v>3.54129504519311</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.43001211435274</v>
+        <v>21.14403895500017</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.43001212496672</v>
+        <v>36.28782309376855</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.43001209330733</v>
+        <v>8.180610404218683</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.43001212985052</v>
+        <v>30.39864420972127</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.4300121428046</v>
+        <v>35.66389349559343</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.43001209341154</v>
+        <v>-2.352319919596098</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.43001213289596</v>
+        <v>26.8689725407865</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.43001214681722</v>
+        <v>34.60666752589209</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.4300121028975</v>
+        <v>0.6048531949125362</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.43001214291359</v>
+        <v>45.78748205567089</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.43001214519568</v>
+        <v>35.61366120475579</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.43001214526902</v>
+        <v>26.48546895100837</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.43001216202994</v>
+        <v>42.50983076125512</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.43001216717784</v>
+        <v>41.52167509669518</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.43001211407077</v>
+        <v>10.19915454444707</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.43001215495226</v>
+        <v>24.09329861834756</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.43001216688524</v>
+        <v>33.77836957765858</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.43001213234146</v>
+        <v>13.41773390517612</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.4300121691166</v>
+        <v>25.8247514702348</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.4300121817135</v>
+        <v>40.77379487641959</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.43001213150226</v>
+        <v>-4.765895453894657</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.43001217129522</v>
+        <v>11.39873515571675</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.43001218464547</v>
+        <v>16.45581972644938</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.4300121430674</v>
+        <v>-0.4497125265007327</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.43001218330285</v>
+        <v>32.54207819890111</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.43001219593684</v>
+        <v>47.69775876404886</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.43001219355614</v>
+        <v>31.02563238583876</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.43001220998924</v>
+        <v>50.74023607816166</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.43001221452673</v>
+        <v>55.30618225412665</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.43001216012579</v>
+        <v>5.933049471640444</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.43001220148796</v>
+        <v>30.06920380551286</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.43001221330812</v>
+        <v>41.82448337184253</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.43001216785082</v>
+        <v>60.17903327856177</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.43001216733568</v>
+        <v>58.23885407006468</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.43001218433471</v>
+        <v>65.85532453508095</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.43001218958563</v>
+        <v>63.04755574528207</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.43001213423706</v>
+        <v>20.7113049720469</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.43001217725195</v>
+        <v>61.78473869722461</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.43001218913439</v>
+        <v>64.46474033473721</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.43001215144502</v>
+        <v>18.3652951353374</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.43001219018044</v>
+        <v>39.59157589856342</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.43001220279359</v>
+        <v>47.59107443885144</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.43001215267462</v>
+        <v>-0.6834277401589617</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.43001219477021</v>
+        <v>46.30340580288619</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.43001220817769</v>
+        <v>46.06010336123576</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.43001216536456</v>
+        <v>5.499353115239032</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.43001220776575</v>
+        <v>69.02682768663867</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.43001222040034</v>
+        <v>73.16150143583279</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.43001221740274</v>
+        <v>79.85943010430218</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.4300122340478</v>
+        <v>85.62092816663646</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.43001223864173</v>
+        <v>85.75523613897421</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.43001218204777</v>
+        <v>27.8809049152358</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.43001222552584</v>
+        <v>83.6196264149507</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.43001223721074</v>
+        <v>84.5170364808679</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.43001217142556</v>
+        <v>65.28244011519007</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.43001217066851</v>
+        <v>55.11657139009718</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.43001218748903</v>
+        <v>60.33599567297857</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.43001219273102</v>
+        <v>63.93170742985365</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.43001213756776</v>
+        <v>13.7802018766756</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.43001218051444</v>
+        <v>58.99142699747799</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.43001219231031</v>
+        <v>63.70374685972179</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.43001215445299</v>
+        <v>13.51814872859471</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.43001219309208</v>
+        <v>37.74831462333741</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.4300122056078</v>
+        <v>47.0318603920101</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.430012156284</v>
+        <v>-2.032019200362143</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.43001219829917</v>
+        <v>44.8095789185967</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.43001221162799</v>
+        <v>47.89829043214975</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.43001216894197</v>
+        <v>5.979620763659725</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.4300122112338</v>
+        <v>71.11398255973377</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.43001222377135</v>
+        <v>78.61048301547181</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.43001222058865</v>
+        <v>82.00970853234075</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.43001223705641</v>
+        <v>87.19924600578248</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.43001224163502</v>
+        <v>90.81898862251258</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.43001218521896</v>
+        <v>16.60466416871968</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.43001222864635</v>
+        <v>82.88152058000459</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.43001224021937</v>
+        <v>87.69663264826319</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.43001215602711</v>
+        <v>58.2933514856516</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.43001215531848</v>
+        <v>36.50881295571479</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.43001217209534</v>
+        <v>44.2738880627743</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.4300121773544</v>
+        <v>48.08746832858448</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.43001212326546</v>
+        <v>9.504073070039553</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.43001216521424</v>
+        <v>51.1035521156211</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.43001217727609</v>
+        <v>56.91668041052715</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.43001214129943</v>
+        <v>8.668843362681784</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.43001217890467</v>
+        <v>36.4485806439552</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.43001219162797</v>
+        <v>48.44793811879877</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.43001214233825</v>
+        <v>-1.720668089286747</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.43001218312529</v>
+        <v>40.53952178018828</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.43001219668095</v>
+        <v>47.23340993225854</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.43001215413432</v>
+        <v>1.916891917933398</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.43001219526866</v>
+        <v>63.19296884100713</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.43001220803551</v>
+        <v>76.95145597036633</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.43001220495666</v>
+        <v>70.06821077849752</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.43001222139612</v>
+        <v>82.90595753659188</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.43001222602348</v>
+        <v>91.29203633721285</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.43001217054685</v>
+        <v>10.00253412899842</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.43001221304207</v>
+        <v>74.98990391737617</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.43001222492718</v>
+        <v>86.6656286753623</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.43001205676342</v>
+        <v>9.889408587402372</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.43001208767068</v>
+        <v>12.96139076332416</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.43001209840576</v>
+        <v>22.35609813297366</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.43001205711321</v>
+        <v>1.973791666849721</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.43001209123974</v>
+        <v>14.89019995446131</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.4300121024582</v>
+        <v>19.44603103650485</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.43001206256897</v>
+        <v>5.432997688377228</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.43001209684239</v>
+        <v>22.48609625454392</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.43001210751403</v>
+        <v>26.85414489849646</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.43001211116668</v>
+        <v>11.25537033394063</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.4300121244614</v>
+        <v>14.51673053892253</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.43001212880069</v>
+        <v>13.84102776534954</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.43001208469002</v>
+        <v>10.69323160510883</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.43001211876699</v>
+        <v>10.01735570107252</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.4300121293757</v>
+        <v>23.33112961371074</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.43001209401574</v>
+        <v>8.737802105855693</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.43001212907079</v>
+        <v>15.48747845936487</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.43001214196801</v>
+        <v>21.22880240325378</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.43001209324272</v>
+        <v>8.120580245802344</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.43001213086628</v>
+        <v>8.848125300836941</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.4300121446715</v>
+        <v>12.43532051304895</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.43001210187853</v>
+        <v>1.595136386887631</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.43001214031993</v>
+        <v>7.778121271764888</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.43001207059243</v>
+        <v>13.85073336620616</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.43001210321032</v>
+        <v>22.62350666927219</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.43001211393609</v>
+        <v>24.93848019506382</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.43001207283719</v>
+        <v>2.469802768287352</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.43001210893744</v>
+        <v>27.12629819854325</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.43001212021672</v>
+        <v>29.03838907939999</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.43001207919148</v>
+        <v>5.715392295279131</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.43001211535553</v>
+        <v>37.30655422583725</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.43001212601496</v>
+        <v>36.73032904878751</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.43001212952204</v>
+        <v>36.63211247202433</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.43001214307998</v>
+        <v>39.8345434061888</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.43001214750004</v>
+        <v>40.24073993693995</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.4300121012453</v>
+        <v>20.50344110339084</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.43001213724973</v>
+        <v>35.43723905103683</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.4300121477474</v>
+        <v>42.20046925022599</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.43001211196374</v>
+        <v>11.08118287549105</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.43001214893217</v>
+        <v>20.56855086767396</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.4300121619053</v>
+        <v>23.45578062126893</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.4300121132335</v>
+        <v>6.235611765022171</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.4300121530511</v>
+        <v>20.43069811921262</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.4300121669991</v>
+        <v>25.37326133826892</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.43001216361237</v>
+        <v>28.50753038913423</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.43001207356793</v>
+        <v>10.25367233785708</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.43001210611871</v>
+        <v>21.22557115093294</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.43001211674486</v>
+        <v>24.48531117867729</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.4300120763577</v>
+        <v>3.264129685384702</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.43001211238833</v>
+        <v>27.48967600762262</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.43001212359626</v>
+        <v>31.78618561233102</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.43001208273289</v>
+        <v>8.874902704540872</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.43001211881413</v>
+        <v>41.88415235597623</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.43001212938032</v>
+        <v>43.85252836626805</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.43001213272141</v>
+        <v>40.63573212889328</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.4300121461551</v>
+        <v>41.22149907040846</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.43001215056455</v>
+        <v>45.59678182267622</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.43001210437188</v>
+        <v>14.49565596422671</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.43001214037943</v>
+        <v>31.848420452193</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.43001215077519</v>
+        <v>40.58377720531958</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.43001211530164</v>
+        <v>10.13311980290096</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.43001215218059</v>
+        <v>20.33580166813569</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.43001216506906</v>
+        <v>24.07557051940076</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.43001211713258</v>
+        <v>7.253196518424474</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.43001215686925</v>
+        <v>18.71628436796533</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.43001217075855</v>
+        <v>28.02575192759539</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.43001212698203</v>
+        <v>5.32581900804341</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.43001216744145</v>
+        <v>31.30291216254628</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.4300120630963</v>
+        <v>4.440707436102358</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.43001209471371</v>
+        <v>13.4065421667224</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.43001210551535</v>
+        <v>18.58814566870925</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.4300120651074</v>
+        <v>2.565969253046845</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.43001210004159</v>
+        <v>24.1282332054767</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.43001211143361</v>
+        <v>30.64510698163315</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.43001207077736</v>
+        <v>1.173785559030037</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.43001210581443</v>
+        <v>33.94374859241984</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.43001211657688</v>
+        <v>37.72111426209855</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.43001211983744</v>
+        <v>27.2840481751012</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.43001213319359</v>
+        <v>28.68931167304289</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.43001213762802</v>
+        <v>31.55323217297642</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.43001209243392</v>
+        <v>6.507421601624301</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.4300121275479</v>
+        <v>23.69757193948197</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.43001213821129</v>
+        <v>36.35846078619541</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.43001210243623</v>
+        <v>5.386440989796696</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.43001213827539</v>
+        <v>18.76751474721466</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.43001215134548</v>
+        <v>23.73462180411924</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.43001210341159</v>
+        <v>7.978139581566793</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.43001214194806</v>
+        <v>19.92223041720918</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.43001215602899</v>
+        <v>29.28981287973177</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.43001211235403</v>
+        <v>2.222493360152001</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.43001215164989</v>
+        <v>25.93958409110913</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.43001215338028</v>
+        <v>14.10109813297731</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.43001215271474</v>
+        <v>9.346487338005758</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.43001216966943</v>
+        <v>21.71468613772002</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.43001217481904</v>
+        <v>28.04777110671488</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.4300121222088</v>
+        <v>3.500051016699317</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.43001216231454</v>
+        <v>5.1088922579209</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.43001217414079</v>
+        <v>9.265136784833246</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.43001213844119</v>
+        <v>11.72407659997363</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.43001217432691</v>
+        <v>16.42496822414888</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.43001218718085</v>
+        <v>28.12898288068318</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.43001213845903</v>
+        <v>7.377800488885086</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.43001217712045</v>
+        <v>8.658202806652994</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.43001219077103</v>
+        <v>13.18977387976709</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.43001214922458</v>
+        <v>2.162936971094197</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.43001218853853</v>
+        <v>12.88847006193582</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.43001220146333</v>
+        <v>28.58683397129464</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.43001219838348</v>
+        <v>14.91453996960728</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.43001221501588</v>
+        <v>34.86352929519016</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.43001221957562</v>
+        <v>40.81046643166819</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.43001216578141</v>
+        <v>5.687737619283652</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.43001220612045</v>
+        <v>8.818590020629827</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.43001221810021</v>
+        <v>16.19433814826722</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.4300121767498</v>
+        <v>35.97445110122807</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.43001217551591</v>
+        <v>34.75024872484109</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.43001219271729</v>
+        <v>42.13431890038063</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.43001219795763</v>
+        <v>44.89276338520442</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.43001214312092</v>
+        <v>14.66986425867292</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.43001218535161</v>
+        <v>36.31710784582441</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.43001219711796</v>
+        <v>38.56909502877001</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.43001215813916</v>
+        <v>19.30162095257749</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.4300121959736</v>
+        <v>29.86541509067014</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.43001220883575</v>
+        <v>36.09128734840461</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.43001216022385</v>
+        <v>8.501032674599728</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.43001220113937</v>
+        <v>33.07276468402095</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.43001221486622</v>
+        <v>37.13673821586109</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.43001217219596</v>
+        <v>7.634861752981962</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.43001221366853</v>
+        <v>47.75774786538263</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.43001222658956</v>
+        <v>54.52398734427074</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.43001222288699</v>
+        <v>63.11488831373065</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.43001223973839</v>
+        <v>69.06584003793422</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.43001224434648</v>
+        <v>72.79364154045074</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.43001218837928</v>
+        <v>29.80103142817829</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.43001223082041</v>
+        <v>56.74403881195276</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.43001224266204</v>
+        <v>60.81557689992685</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.43001218049796</v>
+        <v>42.72601044170523</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.43001217900695</v>
+        <v>30.31878141068783</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.43001219602953</v>
+        <v>34.69223456148103</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.43001220125955</v>
+        <v>44.55915467232555</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.43001214660161</v>
+        <v>9.402179872420632</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.43001218878172</v>
+        <v>34.35862673509871</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.430012200461</v>
+        <v>38.8916275697437</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.430012161295</v>
+        <v>16.46753891885162</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.4300121990512</v>
+        <v>29.29603812268762</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.43001221180931</v>
+        <v>36.63829944191072</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.43001216396487</v>
+        <v>7.575439369576245</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.43001220481643</v>
+        <v>31.42609400716201</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.43001221846121</v>
+        <v>39.88273024451182</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.43001217593758</v>
+        <v>9.329412836515857</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.43001221732013</v>
+        <v>51.51136460501478</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.43001223013826</v>
+        <v>61.19485079781812</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.43001222623376</v>
+        <v>64.34272997721835</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.43001224290788</v>
+        <v>67.27512812137373</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.43001224749896</v>
+        <v>76.71243326330359</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.43001219170409</v>
+        <v>19.43175894795461</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.43001223410774</v>
+        <v>53.9992184668376</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.4300122458376</v>
+        <v>64.22355106163143</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.43001216490455</v>
+        <v>39.45371312310145</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.43001216339176</v>
+        <v>15.26512274865654</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.43001218037183</v>
+        <v>20.26993149518947</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.430012185636</v>
+        <v>33.19018852694678</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.43001213203891</v>
+        <v>5.880946720969078</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.43001217323614</v>
+        <v>33.16735694843106</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.43001218519671</v>
+        <v>38.75998362930845</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.43001214796532</v>
+        <v>11.46990179759165</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.43001218469415</v>
+        <v>27.82659090805176</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.43001219768011</v>
+        <v>38.76052985892518</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.4300121498157</v>
+        <v>8.138106584797058</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.43001218946949</v>
+        <v>29.46523678999348</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.43001220334476</v>
+        <v>42.52879524787285</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.4300121608862</v>
+        <v>4.931572518488437</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.43001220111424</v>
+        <v>43.14991851267972</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.43001221418182</v>
+        <v>60.11236675787539</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.43001221032778</v>
+        <v>48.84901131117196</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.43001222697942</v>
+        <v>58.3455794184835</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.43001223163158</v>
+        <v>74.80522500725202</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.43001217675614</v>
+        <v>9.845680891083518</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.43001221823359</v>
+        <v>44.04132287793884</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.43001223029727</v>
+        <v>61.99691182282565</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.4300120628427</v>
+        <v>11.40223173334148</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.43001209379303</v>
+        <v>13.1766507679355</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.43001210446359</v>
+        <v>24.99957600159094</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.4300120636319</v>
+        <v>3.118668178413358</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.43001209782057</v>
+        <v>16.19024975773566</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.43001210896734</v>
+        <v>22.28024864649812</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.43001206928378</v>
+        <v>4.897274794761941</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.4300121035961</v>
+        <v>25.05946724558771</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.43001211419815</v>
+        <v>30.42487796289231</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.43001211737725</v>
+        <v>12.69248010377002</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.4300121306626</v>
+        <v>17.52677823701814</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.43001213496823</v>
+        <v>16.73967985988742</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.43001209075121</v>
+        <v>11.94937724543861</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.43001212487493</v>
+        <v>9.630059220081009</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.43001213543127</v>
+        <v>25.798529675094</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.43001210067798</v>
+        <v>13.12656481892968</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.43001213578999</v>
+        <v>23.02617454364851</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.430012148587</v>
+        <v>29.96735457910209</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.43001210039646</v>
+        <v>8.564118111923548</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.43001213809137</v>
+        <v>15.0862409458868</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.43001215178307</v>
+        <v>19.61327024347847</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.43001210927644</v>
+        <v>2.947045536098003</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.43001214777244</v>
+        <v>19.08019221929052</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.43001207671119</v>
+        <v>14.09357271025323</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.43001210937388</v>
+        <v>22.67026159180811</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.43001212002527</v>
+        <v>25.86994587276131</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.43001207939015</v>
+        <v>2.93418611073902</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.43001211555526</v>
+        <v>29.43263313674538</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.43001212675066</v>
+        <v>31.05530463226182</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.43001208593478</v>
+        <v>4.151903594704308</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.43001212213845</v>
+        <v>40.52121896193826</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.4300121327179</v>
+        <v>39.4484068307414</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.4300121357386</v>
+        <v>40.14847121536228</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.43001214928789</v>
+        <v>43.18199340409893</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.43001215366913</v>
+        <v>43.04142365829205</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.43001210731764</v>
+        <v>20.95351995524099</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.43001214336973</v>
+        <v>36.67288915287507</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.43001215380397</v>
+        <v>43.82977755810272</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.4300121186592</v>
+        <v>15.70216499474905</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.43001215568794</v>
+        <v>30.44931152249693</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.43001216854649</v>
+        <v>32.45646491376856</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.43001212041301</v>
+        <v>8.233153274548997</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.43001216030626</v>
+        <v>31.42012782399159</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.43001217412306</v>
+        <v>35.09300832253508</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.43001217108657</v>
+        <v>44.52364406858811</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.43001207961597</v>
+        <v>9.172495237404732</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.43001211221229</v>
+        <v>20.31876558395957</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.43001212276276</v>
+        <v>24.81139289121815</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.4300120828335</v>
+        <v>2.999431248900734</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.43001211892939</v>
+        <v>29.20703531946657</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.43001213005192</v>
+        <v>33.67296668736151</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.43001208939603</v>
+        <v>6.288561339020006</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.43001212551756</v>
+        <v>44.52288141506318</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.43001213600223</v>
+        <v>46.30409291528667</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.43001213886129</v>
+        <v>44.52708299280359</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.43001215228684</v>
+        <v>44.94743657112072</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.43001215665682</v>
+        <v>48.88871457958759</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.43001211036997</v>
+        <v>13.73547009631157</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.43001214642532</v>
+        <v>32.68582864583544</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.4300121567564</v>
+        <v>41.92618004307032</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.43001212191413</v>
+        <v>13.81781895364539</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.43001215885389</v>
+        <v>29.95954441636887</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.43001217162628</v>
+        <v>32.88345535475155</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.43001212422102</v>
+        <v>8.72065812039888</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.43001216403346</v>
+        <v>29.78536886656511</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.43001217778964</v>
+        <v>38.05637364051105</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.43001213430466</v>
+        <v>7.792944629919404</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.43001217482121</v>
+        <v>47.51559693095128</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.43001206915942</v>
+        <v>3.836879119067774</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.43001210082239</v>
+        <v>13.07633080290488</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.43001211155426</v>
+        <v>20.64412388847195</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.43001207160356</v>
+        <v>3.266043985312777</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.43001210660161</v>
+        <v>26.39632955000701</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.43001211791621</v>
+        <v>34.60842807060544</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.430012077468</v>
+        <v>-0.1323089162118691</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.43001211254622</v>
+        <v>37.64060387213586</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.43001212323292</v>
+        <v>42.22654534885369</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.43001212601999</v>
+        <v>31.68176671255229</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.43001213936842</v>
+        <v>34.13725440502206</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.43001214376643</v>
+        <v>37.23942979808153</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.43001209846881</v>
+        <v>6.863759907733638</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.43001213362977</v>
+        <v>25.0719526639763</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.43001214423671</v>
+        <v>39.74866244477941</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.43001210906012</v>
+        <v>8.891449550388913</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.4300121449587</v>
+        <v>28.09856418923651</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.43001215792131</v>
+        <v>33.25488423504781</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.43001211051679</v>
+        <v>8.797289656386837</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.43001214912615</v>
+        <v>29.38630271249943</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.43001216308493</v>
+        <v>38.87692907543514</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.43001211970081</v>
+        <v>3.987105166214249</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.43001215905329</v>
+        <v>40.62872454119234</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.43001216072753</v>
+        <v>26.40085368533732</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.43001215960231</v>
+        <v>19.55225744977996</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.43001217655932</v>
+        <v>35.92266057869681</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.43001218165857</v>
+        <v>41.43705271315945</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.43001212890166</v>
+        <v>7.876489079923616</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.43001216905884</v>
+        <v>16.14915026126711</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.43001218079013</v>
+        <v>21.46898837772297</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.43001214339944</v>
+        <v>11.40863738141358</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.43001217929431</v>
+        <v>18.38046655849244</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.43001219208071</v>
+        <v>35.13569712545068</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.43001214388346</v>
+        <v>7.578482907181794</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.43001218256198</v>
+        <v>13.01958725414114</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.43001219613432</v>
+        <v>19.65891578655659</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.430012154768</v>
+        <v>1.240271662763618</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.43001219407999</v>
+        <v>19.14799579989129</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.43001220693584</v>
+        <v>39.40976616210348</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.43001220342241</v>
+        <v>21.74308786557252</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.43001222007054</v>
+        <v>46.17610040250928</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.43001222458618</v>
+        <v>54.17401287607741</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.4300121707018</v>
+        <v>5.475494174830018</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.43001221106073</v>
+        <v>17.96253740226281</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.43001222297003</v>
+        <v>26.6096224224416</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.43001218410378</v>
+        <v>50.78215488012081</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.43001218239855</v>
+        <v>50.85894242063299</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.43001219960129</v>
+        <v>59.13012539506542</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.43001220478452</v>
+        <v>60.65884458592036</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.43001214981427</v>
+        <v>21.38529630731237</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.43001219209661</v>
+        <v>52.53745238507271</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.43001220375336</v>
+        <v>53.71847337880878</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.43001216304681</v>
+        <v>17.50367581072497</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.4300122008923</v>
+        <v>33.48256216904643</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.43001221367511</v>
+        <v>42.51775074732357</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.43001216558728</v>
+        <v>8.976673121936287</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.43001220652224</v>
+        <v>41.6060469898127</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.43001222015618</v>
+        <v>45.63890193643807</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.43001217766755</v>
+        <v>6.012488330717744</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.43001221913865</v>
+        <v>57.28001350366848</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.43001223197875</v>
+        <v>66.32380902938586</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.43001222782673</v>
+        <v>72.68554004048774</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.4300122446936</v>
+        <v>80.75126579008763</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.43001224925292</v>
+        <v>85.60429168128961</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.43001219320912</v>
+        <v>28.67519356178524</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.43001223567132</v>
+        <v>69.6472978827383</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.43001224743234</v>
+        <v>72.73710093025097</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.43001218775574</v>
+        <v>57.71136378149383</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.43001218579856</v>
+        <v>46.87594773978446</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.43001220282211</v>
+        <v>51.960375366535</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.43001220799414</v>
+        <v>60.61938372407678</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.43001215320678</v>
+        <v>15.18050856047013</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.43001219543804</v>
+        <v>50.83535286855505</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.43001216612785</v>
+        <v>14.08128996842335</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.43001220389562</v>
+        <v>32.94988420655078</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.43001221657274</v>
+        <v>43.20120277963893</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.43001216924438</v>
+        <v>8.091543892800118</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.43001221011558</v>
+        <v>40.49973181962658</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.43001222366538</v>
+        <v>49.32430067186347</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.43001218132234</v>
+        <v>7.587151759643845</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.43001222270378</v>
+        <v>61.58538830274934</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.43001223543915</v>
+        <v>73.59772877758651</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.43001223108915</v>
+        <v>74.77680853601377</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.43001224777807</v>
+        <v>79.85419808838542</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.4300122523196</v>
+        <v>90.23284383260447</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.43001219645253</v>
+        <v>17.9669558740229</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.43001223887645</v>
+        <v>67.87925149961787</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.43001225052458</v>
+        <v>77.1943810022613</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.43001217219441</v>
+        <v>53.94458937416135</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.43001217022462</v>
+        <v>28.19314823509946</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.43001218720725</v>
+        <v>36.36980720714689</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.43001219241624</v>
+        <v>48.76460410435099</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.4300121386785</v>
+        <v>10.22178168339501</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.43001217992638</v>
+        <v>48.33387551586166</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.43001219178501</v>
+        <v>53.23265907800793</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.43001215285315</v>
+        <v>9.912284771849599</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.43001218959185</v>
+        <v>30.95686404462897</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.43001220250423</v>
+        <v>46.15067325039139</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.43001215515455</v>
+        <v>8.837480157923821</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.43001219482491</v>
+        <v>36.78955177585739</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.43001220861479</v>
+        <v>51.74138528648361</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.43001216633985</v>
+        <v>4.247012363318831</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.43001220656592</v>
+        <v>52.27867803104364</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.43001221955786</v>
+        <v>72.92212358081305</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.43001221527043</v>
+        <v>58.32424977271994</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.43001223193679</v>
+        <v>71.96754455670809</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.43001223654044</v>
+        <v>90.34732698328587</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.43001218158438</v>
+        <v>9.683014641167446</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.43001222307898</v>
+        <v>57.64445548742883</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.4300122350671</v>
+        <v>75.42996839703598</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.43001205936933</v>
+        <v>9.159739475257112</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.43001208707794</v>
+        <v>7.20215137030177</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.43001209655122</v>
+        <v>19.24763250568107</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.43001205935418</v>
+        <v>6.891257327054873</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.43001209003452</v>
+        <v>18.07527783856391</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.43001209991303</v>
+        <v>22.10722965566727</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.43001206411362</v>
+        <v>6.80669167351526</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.43001209481124</v>
+        <v>24.80825772089928</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.43001210421558</v>
+        <v>28.26727153415349</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.43001210790661</v>
+        <v>11.40822417190979</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.43001211964517</v>
+        <v>19.14714024487634</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.43001212354203</v>
+        <v>17.92622517441779</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.43001208423559</v>
+        <v>16.2202165669532</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.43001211475968</v>
+        <v>8.348422923235987</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.43001212420882</v>
+        <v>28.89883680456255</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.43001209639378</v>
+        <v>17.28908206272264</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.4300121280739</v>
+        <v>27.33675859489747</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.43001213945161</v>
+        <v>30.33993969238551</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.43001209543476</v>
+        <v>6.884115943512526</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.43001212960541</v>
+        <v>20.52404402038428</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.4300121417547</v>
+        <v>20.93885137403649</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.43001210354748</v>
+        <v>6.204491638219977</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.43001213827423</v>
+        <v>32.36711970802271</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.43001207103281</v>
+        <v>10.14553857556564</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.43001210025723</v>
+        <v>10.68238155504512</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.43001210972196</v>
+        <v>16.10960720738063</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.43001207266627</v>
+        <v>4.173725461445358</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.43001210511061</v>
+        <v>24.48651788783849</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.43001211502972</v>
+        <v>23.97307285977541</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.43001207816225</v>
+        <v>3.416112342340043</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.43001211053176</v>
+        <v>31.2685798850396</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.43001211992385</v>
+        <v>29.37996965887476</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.4300121234854</v>
+        <v>27.70173452937145</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.43001213545158</v>
+        <v>32.0185212936494</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.43001213942781</v>
+        <v>31.649471647583</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.43001209822974</v>
+        <v>18.84897607614799</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.43001213045948</v>
+        <v>22.97564776573361</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.43001213980703</v>
+        <v>32.44936723618414</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.43001211191739</v>
+        <v>19.25933554666521</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.43001214530266</v>
+        <v>32.8576319378426</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.43001215674535</v>
+        <v>31.82114264310428</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.43001211275533</v>
+        <v>7.565615670448963</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.43001214890555</v>
+        <v>37.36886816518201</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.43001216115645</v>
+        <v>35.26265281376907</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.43001212186319</v>
+        <v>7.265657330637779</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.43001215847545</v>
+        <v>52.48524946801564</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.43001207356939</v>
+        <v>4.713312600677114</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.43001210272503</v>
+        <v>7.219597224282666</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.4300121121033</v>
+        <v>13.78995356149905</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.43001207568694</v>
+        <v>2.926528903195532</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.43001210805992</v>
+        <v>22.62633910086406</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.43001211791561</v>
+        <v>23.69692226219912</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.43001208118658</v>
+        <v>3.901708574341953</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.43001211347216</v>
+        <v>32.47453730626034</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.43001212278312</v>
+        <v>33.26301956967396</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.43001212620947</v>
+        <v>31.88725885614438</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.4300121380626</v>
+        <v>33.46976213399023</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.43001214203152</v>
+        <v>36.73817113345521</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.43001210089147</v>
+        <v>11.1570436982296</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.43001213311494</v>
+        <v>17.68295091423361</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.43001214237144</v>
+        <v>28.25370148053092</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.43001211474947</v>
+        <v>16.71159871495887</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.4300121480441</v>
+        <v>31.5058560495651</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.43001215941374</v>
+        <v>31.26933720706856</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.43001211608891</v>
+        <v>7.18734891632478</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.43001215215617</v>
+        <v>34.95312566366891</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.43001216435376</v>
+        <v>35.81795064201131</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.43001212520295</v>
+        <v>9.045640011301188</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.43001216171303</v>
+        <v>53.22027403111191</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.4300120645295</v>
+        <v>0.9487598662900325</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.4300120928556</v>
+        <v>3.61358451691595</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.43001210238615</v>
+        <v>13.34563141624444</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.43001206598711</v>
+        <v>3.243127775504135</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.43001209737649</v>
+        <v>22.20303561091127</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.43001210739905</v>
+        <v>26.70776468813459</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.4300120708897</v>
+        <v>-1.73060515471964</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.43001210224962</v>
+        <v>28.09803065988056</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.43001211173046</v>
+        <v>32.21995359549435</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.43001211511885</v>
+        <v>26.41961628730265</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.43001212689965</v>
+        <v>30.58941489839015</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.4300121308821</v>
+        <v>32.56121494605466</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.43001209062036</v>
+        <v>6.530555798116225</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.43001212204975</v>
+        <v>14.15163696994017</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.43001213154325</v>
+        <v>31.71733519100789</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.43001210343362</v>
+        <v>13.25795552404891</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.43001213580243</v>
+        <v>30.83087084475427</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.43001214732698</v>
+        <v>31.26866647968374</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.4300121040394</v>
+        <v>6.48491796764533</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.43001213902144</v>
+        <v>33.21085957770848</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.43001215139707</v>
+        <v>33.51619488343226</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>25.43001211237488</v>
+        <v>5.053499690303894</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>25.43001214785086</v>
+        <v>46.52781892960671</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>25.43001214977465</v>
+        <v>33.10724155521707</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.43001214950654</v>
+        <v>27.83742697580816</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>25.43001216450975</v>
+        <v>42.81326079191489</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>25.43001216907646</v>
+        <v>42.00787542373364</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>25.43001212193492</v>
+        <v>16.90192474877729</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>25.43001215808685</v>
+        <v>25.88947498341062</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>25.43001216866505</v>
+        <v>29.89677057686374</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.43001213680733</v>
+        <v>17.48213517257237</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.43001216931391</v>
+        <v>25.61407004001161</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>25.43001218060598</v>
+        <v>41.32949552001774</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>25.43001213656643</v>
+        <v>6.176843164944117</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>25.43001217175154</v>
+        <v>20.83424325653131</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>25.43001218371025</v>
+        <v>25.02863479214564</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>25.43001214663749</v>
+        <v>5.622860264865423</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>25.4300121822316</v>
+        <v>34.51545836035952</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>25.43001219355935</v>
+        <v>48.68933384791355</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>25.430012191069</v>
+        <v>30.99588905943794</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>25.43001220580824</v>
+        <v>52.19435741629506</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>25.43001220984975</v>
+        <v>56.35334935584096</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>25.43001216157129</v>
+        <v>13.82472892760687</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.43001219807401</v>
+        <v>32.7957391409948</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>25.43001220866693</v>
+        <v>40.36632748014991</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>25.43001217003844</v>
+        <v>52.09030778242204</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.43001216926395</v>
+        <v>54.23728954573016</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>25.43001218447719</v>
+        <v>59.74791924291873</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>25.43001218912785</v>
+        <v>57.37026382264621</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>25.4300121400199</v>
+        <v>28.15797840916802</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>25.43001217805367</v>
+        <v>55.98591759206032</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>25.43001218856817</v>
+        <v>52.83211556550519</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>25.43001215387337</v>
+        <v>20.8731606607523</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>25.43001215546488</v>
+        <v>8.060412791088552</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>25.4300121926828</v>
+        <v>47.75426076211384</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>25.43001220468473</v>
+        <v>46.96827793881617</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>25.43001216654861</v>
+        <v>8.923635959772</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>25.43001220406258</v>
+        <v>64.2235773306471</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>25.43001221538064</v>
+        <v>68.10757953424796</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>25.4300122123497</v>
+        <v>71.92696070006092</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>25.43001222727654</v>
+        <v>78.38491368478712</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>25.43001223136296</v>
+        <v>79.5971339554274</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>25.43001218116068</v>
+        <v>33.5905968381259</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>25.43001221952959</v>
+        <v>76.4879399629114</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>25.43001222998974</v>
+        <v>74.57666327487145</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>25.43001217320547</v>
+        <v>56.46917135785965</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>25.43001217221563</v>
+        <v>51.68695321862647</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>25.43001218726834</v>
+        <v>54.22490911365675</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>25.43001219191002</v>
+        <v>57.35579943740116</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>25.43001214296675</v>
+        <v>21.8978510393617</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>25.43001218094519</v>
+        <v>53.54490731944946</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>25.43001219137906</v>
+        <v>51.94603975792462</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>25.4300121565429</v>
+        <v>16.92165911902516</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>25.43001219070572</v>
+        <v>34.08247951267586</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>25.43001220190999</v>
+        <v>43.67013084350596</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>25.43001215865829</v>
+        <v>6.88110364445599</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>25.43001219580921</v>
+        <v>46.8095620683968</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>25.43001220773631</v>
+        <v>48.41315461512004</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.43001216972083</v>
+        <v>9.562404594814709</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>25.430012207143</v>
+        <v>66.9883814823029</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>25.43001221837022</v>
+        <v>73.08583558766391</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>25.43001221517394</v>
+        <v>74.85469771692952</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>25.43001222994122</v>
+        <v>79.5244685935525</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>25.43001223401287</v>
+        <v>83.94644125298423</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.43001218396923</v>
+        <v>23.86033855158625</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.43001222229668</v>
+        <v>76.10569647363626</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>25.43001223265443</v>
+        <v>77.93533919928971</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>25.43001215951341</v>
+        <v>51.23776471994954</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>25.43001215854099</v>
+        <v>36.66520731339592</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>25.430012173559</v>
+        <v>42.09686629087787</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>25.430012178222</v>
+        <v>44.89082843093281</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>25.43001213020762</v>
+        <v>16.18054032735488</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>25.43001216731848</v>
+        <v>49.17379064513183</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>25.43001217800141</v>
+        <v>48.7949596401079</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>25.4300121448532</v>
+        <v>14.4161964224612</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>25.43001217810576</v>
+        <v>36.00304894668265</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>25.43001218950359</v>
+        <v>47.68654592717279</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>25.4300121462613</v>
+        <v>8.428239613707078</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>25.43001218233442</v>
+        <v>45.9340019674295</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>25.43001219446919</v>
+        <v>50.53209655195464</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>25.43001215655245</v>
+        <v>7.563891964025899</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>25.43001219295342</v>
+        <v>62.75885306614332</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>25.43001220439335</v>
+        <v>73.87398298853104</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>25.4300122012679</v>
+        <v>67.60503865484866</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>25.43001221601407</v>
+        <v>79.58894199353996</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>25.43001222013345</v>
+        <v>87.24666007485452</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>25.43001217089962</v>
+        <v>18.15211336945161</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>25.43001220841242</v>
+        <v>71.64608133834524</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>25.43001221906045</v>
+        <v>80.16953856686912</v>
       </c>
     </row>
   </sheetData>
